--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_48.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.56, 25.4)]</t>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[(14.2, 18.8)]</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:05.400000', '0:00:13.720000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -618,178 +630,190 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[('0:00:29.965374', '0:00:34.307505')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -798,407 +822,362 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:49.060000', '0:00:59.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.280000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(127.6, 132.4)]</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:22.820000', '0:00:26.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
